--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8055" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>Register Name</t>
   </si>
@@ -86,36 +86,21 @@
     <t>RW</t>
   </si>
   <si>
-    <t>rf_bist_en</t>
-  </si>
-  <si>
     <t>0- audio sorce is i2si. 1- audio source is BIST</t>
   </si>
   <si>
     <t>rf_soft_reset</t>
   </si>
   <si>
-    <t>rf_bist_start_val</t>
-  </si>
-  <si>
     <t>start value of sawtooth wave</t>
   </si>
   <si>
-    <t>rf_bist_incr</t>
-  </si>
-  <si>
     <t>increment of sawtooth wave</t>
   </si>
   <si>
-    <t>rf_bist_upper_limit</t>
-  </si>
-  <si>
     <t>upper limit of the sawtooth wave</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>0x008</t>
   </si>
   <si>
@@ -161,9 +146,6 @@
     <t>Filter Coefficient 3</t>
   </si>
   <si>
-    <t>0x7FC</t>
-  </si>
-  <si>
     <t>FILT_COEFFS_510_511</t>
   </si>
   <si>
@@ -173,25 +155,163 @@
     <t>Filter Coefficient 511</t>
   </si>
   <si>
-    <t>rf_coeef0</t>
-  </si>
-  <si>
-    <t>rf_coeef1</t>
-  </si>
-  <si>
-    <t>rf_coeef2</t>
-  </si>
-  <si>
-    <t>rf_coeef3</t>
-  </si>
-  <si>
-    <t>rf_coeef510</t>
-  </si>
-  <si>
-    <t>rf_coeef511</t>
-  </si>
-  <si>
     <t>BIST</t>
+  </si>
+  <si>
+    <t>trig_fifo_overrun</t>
+  </si>
+  <si>
+    <t>fifo overrun clear</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0x00C</t>
+  </si>
+  <si>
+    <t>0x800</t>
+  </si>
+  <si>
+    <t>0x7FF</t>
+  </si>
+  <si>
+    <t>0x010</t>
+  </si>
+  <si>
+    <t>0x040</t>
+  </si>
+  <si>
+    <t>0x43C</t>
+  </si>
+  <si>
+    <t>0x044</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>address register used for indirect addressing via i2c</t>
+  </si>
+  <si>
+    <t>0x014</t>
+  </si>
+  <si>
+    <t>I2C_REG_INDIR_DATA</t>
+  </si>
+  <si>
+    <t>I2C_REG_INDIR_ADDR</t>
+  </si>
+  <si>
+    <t>rf_i2c_reg_indir_addr</t>
+  </si>
+  <si>
+    <t>data access register</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ro_i2c_reg_indir_data</t>
+  </si>
+  <si>
+    <t>rf_filter_shift</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>rf_filter_clip_en</t>
+  </si>
+  <si>
+    <t>number of bit postions to shift after filter accumulator</t>
+  </si>
+  <si>
+    <t>rf_i2si_dec_factor</t>
+  </si>
+  <si>
+    <t>rf_i2so_dec_factor</t>
+  </si>
+  <si>
+    <t>sample and hold audio values</t>
+  </si>
+  <si>
+    <t>I2S_CLOCK_CONTROL</t>
+  </si>
+  <si>
+    <t>half of the clock frequency divided by this #</t>
+  </si>
+  <si>
+    <t>rf_i2so_clk2sck_div</t>
+  </si>
+  <si>
+    <t>0x018</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>0xF</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>1- performs clipping 0- no cliping</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef0</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef1</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef2</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef3</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef510</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef511</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_start_val</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_incr</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_upper_limit</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_en</t>
+  </si>
+  <si>
+    <t>optional?</t>
+  </si>
+  <si>
+    <t>trig_fifo_underrun</t>
+  </si>
+  <si>
+    <t>ro_fifo_underrun</t>
+  </si>
+  <si>
+    <t>output audio fifo underrun</t>
+  </si>
+  <si>
+    <t>fifo underrun clear</t>
   </si>
 </sst>
 </file>
@@ -285,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +439,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,17 +724,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -659,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -678,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -686,8 +809,8 @@
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
+      <c r="G4" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,10 +830,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -726,281 +849,514 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="10">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="10">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="10">
-        <v>16</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="8" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="13">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="2" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary\Documents\GitHub\Chip-Design\proj_asic\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8055" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>Register Name</t>
   </si>
@@ -119,9 +114,6 @@
     <t>15:8</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>FILT_COEFFS_0_1</t>
   </si>
   <si>
@@ -170,12 +162,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>0x00C</t>
   </si>
   <si>
@@ -197,9 +183,6 @@
     <t>0x044</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>address register used for indirect addressing via i2c</t>
   </si>
   <si>
@@ -218,18 +201,12 @@
     <t>data access register</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>ro_i2c_reg_indir_data</t>
   </si>
   <si>
     <t>rf_filter_shift</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>rf_filter_clip_en</t>
   </si>
   <si>
@@ -312,6 +289,48 @@
   </si>
   <si>
     <t>fifo underrun clear</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>10:7</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20:13</t>
+  </si>
+  <si>
+    <t>32:21</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
 </sst>
 </file>
@@ -716,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -849,10 +868,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -861,60 +880,60 @@
         <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>19</v>
@@ -926,16 +945,16 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
@@ -949,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -961,24 +980,24 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
@@ -993,19 +1012,19 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1014,8 +1033,8 @@
       <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
+      <c r="D16" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>28</v>
@@ -1031,32 +1050,32 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
@@ -1067,10 +1086,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="13"/>
@@ -1082,10 +1101,10 @@
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>22</v>
@@ -1094,17 +1113,17 @@
         <v>19</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="13">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>23</v>
@@ -1113,17 +1132,17 @@
         <v>19</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>24</v>
@@ -1132,15 +1151,15 @@
         <v>19</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -1152,13 +1171,13 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>19</v>
@@ -1169,10 +1188,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="13"/>
@@ -1184,27 +1203,27 @@
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1216,13 +1235,13 @@
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
@@ -1235,13 +1254,13 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>19</v>
@@ -1252,10 +1271,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1267,13 +1286,13 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>19</v>
@@ -1286,13 +1305,13 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>19</v>
@@ -1303,10 +1322,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -1318,13 +1337,13 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
@@ -1337,13 +1356,13 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>19</v>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary\Documents\GitHub\Chip-Design\proj_asic\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8055" windowHeight="5550"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>Register Name</t>
   </si>
@@ -274,9 +279,6 @@
   </si>
   <si>
     <t>rf_i2si_bist_en</t>
-  </si>
-  <si>
-    <t>optional?</t>
   </si>
   <si>
     <t>trig_fifo_underrun</t>
@@ -336,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,7 +748,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B10" activeCellId="1" sqref="B11 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -871,7 +873,7 @@
         <v>84</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -890,7 +892,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>63</v>
@@ -909,7 +911,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>74</v>
@@ -923,14 +925,12 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -944,14 +944,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
@@ -983,7 +981,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>68</v>
@@ -1015,7 +1013,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>44</v>
@@ -1034,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>28</v>
@@ -1050,13 +1048,13 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
@@ -1069,13 +1067,13 @@
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
@@ -1104,7 +1102,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>22</v>
@@ -1123,7 +1121,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>23</v>
@@ -1142,7 +1140,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>24</v>
@@ -1174,7 +1172,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>54</v>
@@ -1206,7 +1204,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>59</v>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary\Documents\GitHub\Chip-Design\proj_asic\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8055" windowHeight="5550"/>
   </bookViews>
@@ -155,9 +150,6 @@
     <t>BIST</t>
   </si>
   <si>
-    <t>trig_fifo_overrun</t>
-  </si>
-  <si>
     <t>fifo overrun clear</t>
   </si>
   <si>
@@ -281,9 +273,6 @@
     <t>rf_i2si_bist_en</t>
   </si>
   <si>
-    <t>trig_fifo_underrun</t>
-  </si>
-  <si>
     <t>ro_fifo_underrun</t>
   </si>
   <si>
@@ -333,12 +322,18 @@
   </si>
   <si>
     <t>8:0</t>
+  </si>
+  <si>
+    <t>trig_i2so_fifo_underrun_clr</t>
+  </si>
+  <si>
+    <t>trig_i2si_fifo_overrun_clr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,13 +743,13 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="B11 B10"/>
+      <selection activeCell="D35" sqref="D2:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -854,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -870,10 +865,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -882,58 +877,58 @@
         <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>19</v>
@@ -946,13 +941,13 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
@@ -966,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -978,24 +973,24 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
@@ -1010,19 +1005,19 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +1027,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>28</v>
@@ -1048,32 +1043,32 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
@@ -1084,7 +1079,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>42</v>
@@ -1099,10 +1094,10 @@
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>22</v>
@@ -1111,17 +1106,17 @@
         <v>19</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>23</v>
@@ -1130,17 +1125,17 @@
         <v>19</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>24</v>
@@ -1149,15 +1144,15 @@
         <v>19</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -1169,13 +1164,13 @@
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>19</v>
@@ -1186,10 +1181,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="13"/>
@@ -1201,24 +1196,24 @@
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>31</v>
@@ -1233,7 +1228,7 @@
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>32</v>
@@ -1252,7 +1247,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>34</v>
@@ -1269,7 +1264,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>36</v>
@@ -1284,7 +1279,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>32</v>
@@ -1303,7 +1298,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
@@ -1320,7 +1315,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>39</v>
@@ -1335,7 +1330,7 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>32</v>
@@ -1354,7 +1349,7 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>34</v>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>Register Name</t>
   </si>
@@ -150,6 +150,9 @@
     <t>BIST</t>
   </si>
   <si>
+    <t>trig_fifo_overrun</t>
+  </si>
+  <si>
     <t>fifo overrun clear</t>
   </si>
   <si>
@@ -273,6 +276,12 @@
     <t>rf_i2si_bist_en</t>
   </si>
   <si>
+    <t>optional?</t>
+  </si>
+  <si>
+    <t>trig_fifo_underrun</t>
+  </si>
+  <si>
     <t>ro_fifo_underrun</t>
   </si>
   <si>
@@ -300,41 +309,35 @@
     <t>6:6</t>
   </si>
   <si>
-    <t>10:7</t>
-  </si>
-  <si>
-    <t>14:11</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>20:13</t>
-  </si>
-  <si>
-    <t>32:21</t>
-  </si>
-  <si>
     <t>11:0</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>trig_i2so_fifo_underrun_clr</t>
-  </si>
-  <si>
-    <t>trig_i2si_fifo_overrun_clr</t>
+    <t>11:8</t>
+  </si>
+  <si>
+    <t>15:12</t>
+  </si>
+  <si>
+    <t>19:12</t>
+  </si>
+  <si>
+    <t>31:20</t>
+  </si>
+  <si>
+    <t>0x005</t>
+  </si>
+  <si>
+    <t>0x011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +359,12 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -421,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +467,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,278 +759,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D2:D35"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>62</v>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>73</v>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="E11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>44</v>
@@ -1019,359 +1060,396 @@
       <c r="G15" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>85</v>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>49</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="G25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="H27" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="G30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="G36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
   <si>
     <t>Register Name</t>
   </si>
@@ -195,9 +195,6 @@
     <t>I2C_REG_INDIR_ADDR</t>
   </si>
   <si>
-    <t>rf_i2c_reg_indir_addr</t>
-  </si>
-  <si>
     <t>data access register</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>half of the clock frequency divided by this #</t>
   </si>
   <si>
-    <t>rf_i2so_clk2sck_div</t>
-  </si>
-  <si>
     <t>0x018</t>
   </si>
   <si>
@@ -246,33 +240,9 @@
     <t>1- performs clipping 0- no cliping</t>
   </si>
   <si>
-    <t>rf_filter_coeef0</t>
-  </si>
-  <si>
-    <t>rf_filter_coeef1</t>
-  </si>
-  <si>
-    <t>rf_filter_coeef2</t>
-  </si>
-  <si>
-    <t>rf_filter_coeef3</t>
-  </si>
-  <si>
-    <t>rf_filter_coeef510</t>
-  </si>
-  <si>
-    <t>rf_filter_coeef511</t>
-  </si>
-  <si>
-    <t>rf_i2si_bist_start_val</t>
-  </si>
-  <si>
     <t>rf_i2si_bist_incr</t>
   </si>
   <si>
-    <t>rf_i2si_bist_upper_limit</t>
-  </si>
-  <si>
     <t>rf_i2si_bist_en</t>
   </si>
   <si>
@@ -331,6 +301,117 @@
   </si>
   <si>
     <t>0x011</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_start_val_a</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_start_val_b</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>rf_i2so_clk2sck_div_a</t>
+  </si>
+  <si>
+    <t>rf_i2so_clk2sck_div_b</t>
+  </si>
+  <si>
+    <t>0x009</t>
+  </si>
+  <si>
+    <t>0x012</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_upper_limit_b</t>
+  </si>
+  <si>
+    <t>rf_i2si_bist_upper_limit_a</t>
+  </si>
+  <si>
+    <t>0x013</t>
+  </si>
+  <si>
+    <t>rf_i2c_reg_indir_addr_a</t>
+  </si>
+  <si>
+    <t>rf_i2c_reg_indir_addr_b</t>
+  </si>
+  <si>
+    <t>0x015</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef0_a</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef0_b</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef1_a</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef1_b</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef2_a</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef2_b</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef3_a</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef3_b</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef510_a</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef510_b</t>
+  </si>
+  <si>
+    <t>rf_filter_coeef511_b</t>
+  </si>
+  <si>
+    <t>0x041</t>
+  </si>
+  <si>
+    <t>0x042</t>
+  </si>
+  <si>
+    <t>0x043</t>
+  </si>
+  <si>
+    <t>0x045</t>
+  </si>
+  <si>
+    <t>0x046</t>
+  </si>
+  <si>
+    <t>0x047</t>
+  </si>
+  <si>
+    <t>0x043C</t>
+  </si>
+  <si>
+    <t>0x043D</t>
+  </si>
+  <si>
+    <t>0x043E</t>
+  </si>
+  <si>
+    <t>0x043F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -469,7 +550,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,6 +557,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,7 +834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,20 +842,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -782,7 +866,7 @@
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
@@ -806,7 +890,7 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -816,7 +900,9 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
@@ -836,7 +922,9 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
@@ -854,13 +942,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
@@ -868,14 +956,18 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>18</v>
@@ -888,14 +980,18 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>20</v>
@@ -904,65 +1000,75 @@
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="D8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -970,24 +1076,28 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="14">
-        <v>0.125</v>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1001,9 +1111,9 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
@@ -1011,409 +1121,480 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="G25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="E30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="G32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="8" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="G34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D35" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
@@ -1423,30 +1604,222 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="1"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8055" windowHeight="5550"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20595" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="127">
   <si>
     <t>Register Name</t>
   </si>
@@ -174,33 +174,15 @@
     <t>0x010</t>
   </si>
   <si>
-    <t>0x040</t>
-  </si>
-  <si>
-    <t>0x43C</t>
-  </si>
-  <si>
-    <t>0x044</t>
-  </si>
-  <si>
     <t>address register used for indirect addressing via i2c</t>
   </si>
   <si>
     <t>0x014</t>
   </si>
   <si>
-    <t>I2C_REG_INDIR_DATA</t>
-  </si>
-  <si>
     <t>I2C_REG_INDIR_ADDR</t>
   </si>
   <si>
-    <t>data access register</t>
-  </si>
-  <si>
-    <t>ro_i2c_reg_indir_data</t>
-  </si>
-  <si>
     <t>rf_filter_shift</t>
   </si>
   <si>
@@ -225,9 +207,6 @@
     <t>half of the clock frequency divided by this #</t>
   </si>
   <si>
-    <t>0x018</t>
-  </si>
-  <si>
     <t>0x1</t>
   </si>
   <si>
@@ -282,18 +261,12 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>11:8</t>
   </si>
   <si>
     <t>15:12</t>
   </si>
   <si>
-    <t>19:12</t>
-  </si>
-  <si>
     <t>31:20</t>
   </si>
   <si>
@@ -378,40 +351,55 @@
     <t>rf_filter_coeef510_b</t>
   </si>
   <si>
+    <t>rf_filter_coeef511_a</t>
+  </si>
+  <si>
     <t>rf_filter_coeef511_b</t>
   </si>
   <si>
-    <t>0x041</t>
-  </si>
-  <si>
-    <t>0x042</t>
-  </si>
-  <si>
-    <t>0x043</t>
-  </si>
-  <si>
-    <t>0x045</t>
-  </si>
-  <si>
-    <t>0x046</t>
-  </si>
-  <si>
-    <t>0x047</t>
-  </si>
-  <si>
-    <t>0x043C</t>
-  </si>
-  <si>
-    <t>0x043D</t>
-  </si>
-  <si>
-    <t>0x043E</t>
-  </si>
-  <si>
-    <t>0x043F</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>0x001</t>
+  </si>
+  <si>
+    <t>19:8</t>
+  </si>
+  <si>
+    <t>0x0400</t>
+  </si>
+  <si>
+    <t>0x0401</t>
+  </si>
+  <si>
+    <t>0x0402</t>
+  </si>
+  <si>
+    <t>0x0403</t>
+  </si>
+  <si>
+    <t>0x0404</t>
+  </si>
+  <si>
+    <t>0x0405</t>
+  </si>
+  <si>
+    <t>0x0406</t>
+  </si>
+  <si>
+    <t>0x0407</t>
+  </si>
+  <si>
+    <t>0x7FC</t>
+  </si>
+  <si>
+    <t>0x07FD</t>
+  </si>
+  <si>
+    <t>0x07FC</t>
+  </si>
+  <si>
+    <t>0x07FE</t>
+  </si>
+  <si>
+    <t>0x07FF</t>
   </si>
 </sst>
 </file>
@@ -834,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +886,9 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
         <v>29</v>
@@ -920,7 +910,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>29</v>
@@ -961,13 +953,13 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>18</v>
@@ -985,13 +977,13 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>20</v>
@@ -1000,7 +992,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1009,22 +1001,22 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1033,42 +1025,42 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -1077,27 +1069,27 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1111,7 +1103,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
@@ -1129,31 +1121,31 @@
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
@@ -1161,10 +1153,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,13 +1179,13 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>44</v>
@@ -1211,13 +1203,13 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>28</v>
@@ -1235,16 +1227,16 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>45</v>
@@ -1259,16 +1251,16 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>10</v>
@@ -1300,74 +1292,74 @@
         <v>29</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="13" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="13" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>24</v>
@@ -1381,32 +1373,26 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="9"/>
@@ -1417,20 +1403,20 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>19</v>
@@ -1441,18 +1427,18 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>19</v>
@@ -1462,71 +1448,81 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>46</v>
+      <c r="A30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>19</v>
@@ -1537,18 +1533,18 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>19</v>
@@ -1558,81 +1554,81 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="A34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="7" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>19</v>
@@ -1643,18 +1639,18 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -1664,81 +1660,81 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="2" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>19</v>
@@ -1749,18 +1745,18 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>19</v>
@@ -1770,56 +1766,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="1"/>
+      <c r="E45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
   <si>
     <t>Register Name</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>4:2</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>rf_i2si_en</t>
   </si>
 </sst>
 </file>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,38 +965,32 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -998,19 +998,19 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,19 +1019,19 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,19 +1040,19 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,19 +1061,19 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,182 +1082,182 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="A23" s="15"/>
       <c r="B23" s="11"/>
       <c r="C23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>30</v>
@@ -1271,17 +1271,17 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>19</v>
@@ -1292,14 +1292,14 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>31</v>
@@ -1312,49 +1312,49 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>33</v>
@@ -1368,17 +1368,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>19</v>
@@ -1389,14 +1389,14 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>34</v>
@@ -1409,49 +1409,49 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>36</v>
@@ -1465,17 +1465,17 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>19</v>
@@ -1486,14 +1486,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>37</v>
@@ -1502,6 +1502,27 @@
         <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
   <si>
     <t>Register Name</t>
   </si>
@@ -218,9 +218,6 @@
     <t>rf_i2si_bist_upper_limit_a</t>
   </si>
   <si>
-    <t>0x013</t>
-  </si>
-  <si>
     <t>rf_filter_coeef0_a</t>
   </si>
   <si>
@@ -342,6 +339,12 @@
   </si>
   <si>
     <t>rf_i2si_en</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0x011</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +851,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -928,7 +931,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>46</v>
@@ -949,7 +952,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>47</v>
@@ -970,10 +973,10 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1004,7 +1007,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>40</v>
@@ -1025,7 +1028,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1046,7 +1049,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>40</v>
@@ -1067,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -1082,13 +1085,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>40</v>
@@ -1103,13 +1106,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -1175,11 +1178,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>61</v>
@@ -1202,7 +1205,9 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="13" t="s">
         <v>28</v>
@@ -1222,11 +1227,11 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="13" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>62</v>
@@ -1237,7 +1242,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>29</v>
@@ -1250,14 +1255,14 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>30</v>
@@ -1271,14 +1276,14 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -1292,14 +1297,14 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>31</v>
@@ -1313,14 +1318,14 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>31</v>
@@ -1334,7 +1339,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
@@ -1347,14 +1352,14 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>33</v>
@@ -1368,14 +1373,14 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>33</v>
@@ -1389,14 +1394,14 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>34</v>
@@ -1410,14 +1415,14 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>34</v>
@@ -1431,7 +1436,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>35</v>
@@ -1444,14 +1449,14 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>36</v>
@@ -1465,14 +1470,14 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>36</v>
@@ -1486,14 +1491,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>37</v>
@@ -1507,14 +1512,14 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>37</v>

--- a/proj_asic/docs/register_map.xlsx
+++ b/proj_asic/docs/register_map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary\Documents\GitHub\Chip-Design\proj_asic\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="20595" windowHeight="11040"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>Register Name</t>
   </si>
@@ -47,24 +42,9 @@
     <t>Address</t>
   </si>
   <si>
-    <t>0x000</t>
-  </si>
-  <si>
-    <t>CHIP_INFO</t>
-  </si>
-  <si>
-    <t>Fixed Chip ID</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
-    <t>0x1234</t>
-  </si>
-  <si>
-    <t>Fixed Revision ID</t>
-  </si>
-  <si>
     <t>0x0</t>
   </si>
   <si>
@@ -74,24 +54,12 @@
     <t>CONTROL</t>
   </si>
   <si>
-    <t>ro_chip_id</t>
-  </si>
-  <si>
-    <t>ro_revision_id</t>
-  </si>
-  <si>
-    <t>0- normal operation. 1- assert soft reset</t>
-  </si>
-  <si>
     <t>RW</t>
   </si>
   <si>
     <t>0- audio sorce is i2si. 1- audio source is BIST</t>
   </si>
   <si>
-    <t>rf_soft_reset</t>
-  </si>
-  <si>
     <t>start value of sawtooth wave</t>
   </si>
   <si>
@@ -155,12 +123,6 @@
     <t>0x00C</t>
   </si>
   <si>
-    <t>0x800</t>
-  </si>
-  <si>
-    <t>0x7FF</t>
-  </si>
-  <si>
     <t>0x010</t>
   </si>
   <si>
@@ -254,9 +216,6 @@
     <t>rf_filter_coeef511_b</t>
   </si>
   <si>
-    <t>0x001</t>
-  </si>
-  <si>
     <t>0x0400</t>
   </si>
   <si>
@@ -332,12 +291,6 @@
     <t>0x00E</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
     <t>rf_i2si_en</t>
   </si>
   <si>
@@ -345,12 +298,24 @@
   </si>
   <si>
     <t>0x011</t>
+  </si>
+  <si>
+    <t>Enable bit for Deserializer. 0 = inactive, 1 = active</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>0x80</t>
+  </si>
+  <si>
+    <t>0x7F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -427,24 +392,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -454,12 +406,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,342 +739,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
+      <c r="A4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>42</v>
+      <c r="A18" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1136,399 +1086,333 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
-        <v>28</v>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="F34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13" t="s">
+      <c r="D35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>13</v>
+      <c r="F35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
